--- a/src/testCase/useCase_file/Aerocheck/铺层库优化工具.xlsx
+++ b/src/testCase/useCase_file/Aerocheck/铺层库优化工具.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="495">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2130,6 +2130,10 @@
   </si>
   <si>
     <t>信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息-&gt;铺层库优化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2573,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2689,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>494</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
